--- a/gantt-chart_L (1).xlsx
+++ b/gantt-chart_L (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeojinansari/Desktop/5607/W1/Mon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeojinansari/Desktop/Gannt Chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BFFDF7-5690-424A-AAD0-B2582DE1D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D47FA3-A999-6441-B45A-7E09DE2BC7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="760" windowWidth="23960" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="460" windowWidth="24080" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -55,7 +55,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -64,15 +64,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Level 1: 1, 2, 3, ...
-Level 2: 1.1, 1.2, 1.3, ...
-Level 3: 1.1.1, 1.1.2, 1.1.3, …
- - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 1: 1, 2, 3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 2: 1.1, 1.2, 1.3, ...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Level 3: 1.1.1, 1.1.2, 1.1.3, …
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - The WBS uses a formula to control the numbering, but the formulas are different for different levels. Copy and Paste the cells in the WBS column from the examples at the bottom of the worksheet.</t>
         </r>
       </text>
     </comment>
@@ -82,7 +118,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -91,12 +127,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the name of each task and sub-task. Use indents for sub-tasks.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter the name of each task and sub-task. Use indents for sub-tasks.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +151,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -115,12 +160,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter the name of the Task Lead in this column.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter the name of the Task Lead in this column.</t>
         </r>
       </text>
     </comment>
@@ -154,7 +208,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -163,18 +217,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-You can manually enter the Start Date for each task or use a formula to create a dependency on a Predecessor. For example, you could enter </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">You can manually enter the Start Date for each task or use a formula to create a dependency on a Predecessor. For example, you could enter </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -185,7 +248,7 @@
             <b/>
             <i/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -195,7 +258,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -204,7 +267,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -214,7 +277,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -225,7 +288,7 @@
             <b/>
             <i/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -235,7 +298,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -244,7 +307,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -254,7 +317,7 @@
           <rPr>
             <i/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -263,7 +326,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -277,7 +340,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -286,12 +349,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The End Date is calculated based on the Start Date and the Calendar Days columns.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The End Date is calculated based on the Start Date and the Calendar Days columns.</t>
         </r>
       </text>
     </comment>
@@ -407,7 +479,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -416,12 +488,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Counts the number of work days, excluding the weekends (Saturday and Sunday). In the PRO version, you can customize the work week and list specific non-working days like holidays. In the PRO version, the default input is the Work Days instead of the Calendar Days.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Counts the number of work days, excluding the weekends (Saturday and Sunday). In the PRO version, you can customize the work week and list specific non-working days like holidays. In the PRO version, the default input is the Work Days instead of the Calendar Days.</t>
         </r>
       </text>
     </comment>
@@ -453,7 +534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="202">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -1488,9 +1569,6 @@
     </r>
   </si>
   <si>
-    <t>[Sub-task]</t>
-  </si>
-  <si>
     <t>Method 2 will work, but Excel will split/fracture/duplicate conditional formatting rules rather than merging the rules. This can cause inefficiencies in very large and heavily modified files.</t>
   </si>
   <si>
@@ -1538,6 +1616,189 @@
       <t>+1</t>
     </r>
   </si>
+  <si>
+    <t>Information Gathering</t>
+  </si>
+  <si>
+    <t>Study use cases</t>
+  </si>
+  <si>
+    <t>Write system use case narratives</t>
+  </si>
+  <si>
+    <t>Update medication</t>
+  </si>
+  <si>
+    <t>Add medication</t>
+  </si>
+  <si>
+    <t>Delete medication</t>
+  </si>
+  <si>
+    <t>Add ward</t>
+  </si>
+  <si>
+    <t>Update ward</t>
+  </si>
+  <si>
+    <t>Delete ward</t>
+  </si>
+  <si>
+    <t>Produce wards reports</t>
+  </si>
+  <si>
+    <t>Close admission</t>
+  </si>
+  <si>
+    <t>Draw use case diagrams</t>
+  </si>
+  <si>
+    <t>Draw Activity diagrams</t>
+  </si>
+  <si>
+    <t>Draw sequene diagrams</t>
+  </si>
+  <si>
+    <t>Draw class diagrams</t>
+  </si>
+  <si>
+    <t>Collect requirements</t>
+  </si>
+  <si>
+    <t>Analyse project requirement</t>
+  </si>
+  <si>
+    <t>Wed 10/6/21</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>1.4.7</t>
+  </si>
+  <si>
+    <t>1.4.8</t>
+  </si>
+  <si>
+    <t>Finalise on all diagrams</t>
+  </si>
+  <si>
+    <t>Mon 20/09/2021</t>
+  </si>
+  <si>
+    <t>Mon 20/09/21</t>
+  </si>
+  <si>
+    <t>Mon 21/09/21</t>
+  </si>
+  <si>
+    <t>Tue 21/0/21</t>
+  </si>
+  <si>
+    <t>Wed 22/09/21</t>
+  </si>
+  <si>
+    <t>Thur 23/09/21</t>
+  </si>
+  <si>
+    <t>Fri 24/09/21</t>
+  </si>
+  <si>
+    <t>Sat 25/09/21</t>
+  </si>
+  <si>
+    <t>Finalise on use case narratives</t>
+  </si>
+  <si>
+    <t>Sun 26/09/21</t>
+  </si>
+  <si>
+    <t>Mon 27/09/21</t>
+  </si>
+  <si>
+    <t>Tue 28/09/21</t>
+  </si>
+  <si>
+    <t>Wed 29/09/21</t>
+  </si>
+  <si>
+    <t>Thur 30/09/21</t>
+  </si>
+  <si>
+    <t>Sat 02/10/21</t>
+  </si>
+  <si>
+    <t>Fri 01/10/21</t>
+  </si>
+  <si>
+    <t>Sun 03/10/21</t>
+  </si>
+  <si>
+    <t>Mon 04/10/21</t>
+  </si>
+  <si>
+    <t>Tue 05/10/21</t>
+  </si>
+  <si>
+    <t>Thur 07/10/21</t>
+  </si>
+  <si>
+    <t>Project Design</t>
+  </si>
+  <si>
+    <t>Thur 27/09/21</t>
+  </si>
+  <si>
+    <t>Fri 08/10/21</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Write design level use case descriptors</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
 </sst>
 </file>
 
@@ -1549,7 +1810,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1800,21 +2061,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2008,6 +2254,61 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2485,7 +2786,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2578,246 +2879,240 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="40" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="40" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="40" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="45" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="26" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="45" fillId="26" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="24" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="24" borderId="16" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="24" borderId="16" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="47" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2827,97 +3122,112 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3100,13 +3410,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -3748,18 +4058,18 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN44"/>
+  <dimension ref="A1:BN53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA6" sqref="BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
@@ -3779,30 +4089,30 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="I1" s="131"/>
-      <c r="K1" s="163" t="s">
+      <c r="I1" s="129"/>
+      <c r="K1" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
@@ -3811,8 +4121,8 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="14" x14ac:dyDescent="0.15">
@@ -3847,194 +4157,178 @@
       <c r="B4" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="168">
-        <v>43129</v>
-      </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
+      <c r="C4" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="126">
         <v>1</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="165" t="str">
-        <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="165" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="165" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="165" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="166"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="165" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="166"/>
-      <c r="AO4" s="166"/>
-      <c r="AP4" s="166"/>
-      <c r="AQ4" s="166"/>
-      <c r="AR4" s="166"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="165" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="166"/>
-      <c r="AV4" s="166"/>
-      <c r="AW4" s="166"/>
-      <c r="AX4" s="166"/>
-      <c r="AY4" s="166"/>
-      <c r="AZ4" s="167"/>
-      <c r="BA4" s="165" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="166"/>
-      <c r="BC4" s="166"/>
-      <c r="BD4" s="166"/>
-      <c r="BE4" s="166"/>
-      <c r="BF4" s="166"/>
-      <c r="BG4" s="167"/>
-      <c r="BH4" s="165" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="166"/>
-      <c r="BJ4" s="166"/>
-      <c r="BK4" s="166"/>
-      <c r="BL4" s="166"/>
-      <c r="BM4" s="166"/>
-      <c r="BN4" s="167"/>
+      <c r="K4" s="168" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="168" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="168" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="169"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN4" s="169"/>
+      <c r="AO4" s="169"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="168" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU4" s="169"/>
+      <c r="AV4" s="169"/>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="168" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB4" s="169"/>
+      <c r="BC4" s="169"/>
+      <c r="BD4" s="169"/>
+      <c r="BE4" s="169"/>
+      <c r="BF4" s="169"/>
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="168" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI4" s="169"/>
+      <c r="BJ4" s="169"/>
+      <c r="BK4" s="169"/>
+      <c r="BL4" s="169"/>
+      <c r="BM4" s="169"/>
+      <c r="BN4" s="170"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="169">
-        <f>K6</f>
-        <v>43129</v>
-      </c>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="169">
-        <f>R6</f>
-        <v>43136</v>
-      </c>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="169">
-        <f>Y6</f>
-        <v>43143</v>
-      </c>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="169">
-        <f>AF6</f>
-        <v>43150</v>
-      </c>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="170"/>
-      <c r="AK5" s="170"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="169">
-        <f>AM6</f>
-        <v>43157</v>
-      </c>
-      <c r="AN5" s="170"/>
-      <c r="AO5" s="170"/>
-      <c r="AP5" s="170"/>
-      <c r="AQ5" s="170"/>
-      <c r="AR5" s="170"/>
-      <c r="AS5" s="171"/>
-      <c r="AT5" s="169">
-        <f>AT6</f>
-        <v>43164</v>
-      </c>
-      <c r="AU5" s="170"/>
-      <c r="AV5" s="170"/>
-      <c r="AW5" s="170"/>
-      <c r="AX5" s="170"/>
-      <c r="AY5" s="170"/>
-      <c r="AZ5" s="171"/>
-      <c r="BA5" s="169">
-        <f>BA6</f>
-        <v>43171</v>
-      </c>
-      <c r="BB5" s="170"/>
-      <c r="BC5" s="170"/>
-      <c r="BD5" s="170"/>
-      <c r="BE5" s="170"/>
-      <c r="BF5" s="170"/>
-      <c r="BG5" s="171"/>
-      <c r="BH5" s="169">
-        <f>BH6</f>
-        <v>43178</v>
-      </c>
-      <c r="BI5" s="170"/>
-      <c r="BJ5" s="170"/>
-      <c r="BK5" s="170"/>
-      <c r="BL5" s="170"/>
-      <c r="BM5" s="170"/>
-      <c r="BN5" s="171"/>
+      <c r="K5" s="172">
+        <v>44459</v>
+      </c>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="172">
+        <v>44466</v>
+      </c>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="172">
+        <v>44473</v>
+      </c>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="172">
+        <v>44480</v>
+      </c>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="172">
+        <v>44487</v>
+      </c>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="172">
+        <v>44494</v>
+      </c>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="172">
+        <v>44501</v>
+      </c>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="173"/>
+      <c r="BE5" s="173"/>
+      <c r="BF5" s="173"/>
+      <c r="BG5" s="174"/>
+      <c r="BH5" s="172">
+        <v>44508</v>
+      </c>
+      <c r="BI5" s="173"/>
+      <c r="BJ5" s="173"/>
+      <c r="BK5" s="173"/>
+      <c r="BL5" s="173"/>
+      <c r="BM5" s="173"/>
+      <c r="BN5" s="174"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
@@ -4047,229 +4341,229 @@
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="91">
+      <c r="K6" s="91" t="e">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43129</v>
-      </c>
-      <c r="L6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="82" t="e">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43130</v>
-      </c>
-      <c r="M6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43131</v>
-      </c>
-      <c r="N6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43132</v>
-      </c>
-      <c r="O6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43133</v>
-      </c>
-      <c r="P6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43134</v>
-      </c>
-      <c r="Q6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="92" t="e">
         <f t="shared" si="0"/>
-        <v>43135</v>
-      </c>
-      <c r="R6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>43136</v>
-      </c>
-      <c r="S6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43137</v>
-      </c>
-      <c r="T6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43138</v>
-      </c>
-      <c r="U6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43139</v>
-      </c>
-      <c r="V6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43140</v>
-      </c>
-      <c r="W6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43141</v>
-      </c>
-      <c r="X6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X6" s="92" t="e">
         <f t="shared" si="0"/>
-        <v>43142</v>
-      </c>
-      <c r="Y6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y6" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>43143</v>
-      </c>
-      <c r="Z6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43144</v>
-      </c>
-      <c r="AA6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43145</v>
-      </c>
-      <c r="AB6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43146</v>
-      </c>
-      <c r="AC6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="AD6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43148</v>
-      </c>
-      <c r="AE6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE6" s="92" t="e">
         <f t="shared" si="0"/>
-        <v>43149</v>
-      </c>
-      <c r="AF6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF6" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>43150</v>
-      </c>
-      <c r="AG6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43151</v>
-      </c>
-      <c r="AH6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43152</v>
-      </c>
-      <c r="AI6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43153</v>
-      </c>
-      <c r="AJ6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="AK6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43155</v>
-      </c>
-      <c r="AL6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL6" s="92" t="e">
         <f t="shared" si="0"/>
-        <v>43156</v>
-      </c>
-      <c r="AM6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM6" s="91" t="e">
         <f t="shared" si="0"/>
-        <v>43157</v>
-      </c>
-      <c r="AN6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43158</v>
-      </c>
-      <c r="AO6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43159</v>
-      </c>
-      <c r="AP6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43160</v>
-      </c>
-      <c r="AQ6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ6" s="82" t="e">
         <f t="shared" si="0"/>
-        <v>43161</v>
-      </c>
-      <c r="AR6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR6" s="82" t="e">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43162</v>
-      </c>
-      <c r="AS6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS6" s="92" t="e">
         <f t="shared" si="1"/>
-        <v>43163</v>
-      </c>
-      <c r="AT6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT6" s="91" t="e">
         <f t="shared" si="1"/>
-        <v>43164</v>
-      </c>
-      <c r="AU6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43165</v>
-      </c>
-      <c r="AV6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43166</v>
-      </c>
-      <c r="AW6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43167</v>
-      </c>
-      <c r="AX6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43168</v>
-      </c>
-      <c r="AY6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43169</v>
-      </c>
-      <c r="AZ6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ6" s="92" t="e">
         <f t="shared" si="1"/>
-        <v>43170</v>
-      </c>
-      <c r="BA6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA6" s="91" t="e">
         <f t="shared" si="1"/>
-        <v>43171</v>
-      </c>
-      <c r="BB6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43172</v>
-      </c>
-      <c r="BC6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43173</v>
-      </c>
-      <c r="BD6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43174</v>
-      </c>
-      <c r="BE6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43175</v>
-      </c>
-      <c r="BF6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43176</v>
-      </c>
-      <c r="BG6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG6" s="92" t="e">
         <f t="shared" si="1"/>
-        <v>43177</v>
-      </c>
-      <c r="BH6" s="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH6" s="91" t="e">
         <f t="shared" si="1"/>
-        <v>43178</v>
-      </c>
-      <c r="BI6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43179</v>
-      </c>
-      <c r="BJ6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43180</v>
-      </c>
-      <c r="BK6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43181</v>
-      </c>
-      <c r="BL6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43182</v>
-      </c>
-      <c r="BM6" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM6" s="82" t="e">
         <f t="shared" si="1"/>
-        <v>43183</v>
-      </c>
-      <c r="BN6" s="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN6" s="92" t="e">
         <f t="shared" si="1"/>
-        <v>43184</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="123" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4301,229 +4595,229 @@
         <v>76</v>
       </c>
       <c r="J7" s="117"/>
-      <c r="K7" s="120" t="str">
+      <c r="K7" s="120" t="e">
         <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
-        <v>M</v>
-      </c>
-      <c r="L7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="M7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>W</v>
-      </c>
-      <c r="N7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="O7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="P7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="Q7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" s="122" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="R7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="120" t="e">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="S7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="T7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>W</v>
-      </c>
-      <c r="U7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="V7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="W7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="X7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X7" s="122" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="Y7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" s="120" t="e">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="Z7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AA7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>W</v>
-      </c>
-      <c r="AB7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AC7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="AD7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AE7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE7" s="122" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AF7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF7" s="120" t="e">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="AG7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AH7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>W</v>
-      </c>
-      <c r="AI7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AJ7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="AK7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AL7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL7" s="122" t="e">
         <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="AM7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM7" s="120" t="e">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="AN7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AO7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>W</v>
-      </c>
-      <c r="AP7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP7" s="121" t="e">
         <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="AQ7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ7" s="121" t="e">
         <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
-        <v>F</v>
-      </c>
-      <c r="AR7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AS7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS7" s="122" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AT7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT7" s="120" t="e">
         <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AU7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AV7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AW7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AX7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AY7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AZ7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ7" s="122" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BA7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA7" s="120" t="e">
         <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="BB7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BC7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="BD7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BE7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="BF7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BG7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG7" s="122" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BH7" s="120" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH7" s="120" t="e">
         <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="BI7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BJ7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="BK7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BL7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="BM7" s="121" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM7" s="121" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BN7" s="122" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN7" s="122" t="e">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -4532,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
@@ -4544,7 +4838,7 @@
       <c r="G8" s="88"/>
       <c r="H8" s="89"/>
       <c r="I8" s="90" t="str">
-        <f t="shared" ref="I8:I37" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I46" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="93"/>
@@ -4606,33 +4900,31 @@
       <c r="BN8" s="105"/>
     </row>
     <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A17" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+      <c r="A9" s="161" t="str">
+        <f t="shared" ref="A9:A25" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>11</v>
+      <c r="B9" s="162" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="99">
-        <v>43129</v>
-      </c>
-      <c r="F9" s="100">
-        <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43133</v>
+      <c r="D9" s="125"/>
+      <c r="E9" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>170</v>
       </c>
       <c r="G9" s="61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="62">
         <v>1</v>
       </c>
       <c r="I9" s="63">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="106"/>
@@ -4693,30 +4985,25 @@
       <c r="BN9" s="106"/>
     </row>
     <row r="10" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="59" t="str">
-        <f t="shared" si="5"/>
+      <c r="A10" s="161">
         <v>1.2</v>
       </c>
-      <c r="B10" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="99">
-        <v>43134</v>
-      </c>
-      <c r="F10" s="100">
-        <f t="shared" ref="F10:F35" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43138</v>
+      <c r="B10" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>171</v>
       </c>
       <c r="G10" s="61">
-        <v>5</v>
-      </c>
-      <c r="H10" s="62">
-        <v>0.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="62"/>
       <c r="I10" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="106"/>
@@ -4777,35 +5064,30 @@
       <c r="BN10" s="106"/>
     </row>
     <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="str">
-        <f t="shared" si="5"/>
+      <c r="A11" s="161">
         <v>1.3</v>
       </c>
-      <c r="B11" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="99">
-        <v>43139</v>
-      </c>
-      <c r="F11" s="100">
-        <f t="shared" si="6"/>
-        <v>43142</v>
+      <c r="B11" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>172</v>
       </c>
       <c r="G11" s="61">
-        <v>4</v>
-      </c>
-      <c r="H11" s="62">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H11" s="62"/>
       <c r="I11" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="94"/>
       <c r="K11" s="106"/>
       <c r="L11" s="106"/>
-      <c r="M11" s="107"/>
+      <c r="M11" s="106"/>
       <c r="N11" s="106"/>
       <c r="O11" s="106"/>
       <c r="P11" s="106"/>
@@ -4861,30 +5143,28 @@
       <c r="BN11" s="106"/>
     </row>
     <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A12" s="59" t="str">
+      <c r="A12" s="161" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="B12" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="99">
-        <v>43132</v>
-      </c>
-      <c r="F12" s="100">
-        <f t="shared" si="6"/>
-        <v>43135</v>
+      <c r="B12" s="165" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>189</v>
       </c>
       <c r="G12" s="61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="62">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="106"/>
@@ -4945,29 +5225,24 @@
       <c r="BN12" s="106"/>
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.4.1</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="99">
-        <v>43133</v>
-      </c>
-      <c r="F13" s="100">
-        <f t="shared" si="6"/>
-        <v>43134</v>
+      <c r="A13" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>173</v>
       </c>
       <c r="G13" s="61">
-        <v>2</v>
-      </c>
-      <c r="H13" s="62">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="62"/>
       <c r="I13" s="63">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J13" s="94"/>
@@ -5029,30 +5304,25 @@
       <c r="BN13" s="106"/>
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A14" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.4.2</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="99">
-        <v>43135</v>
-      </c>
-      <c r="F14" s="100">
-        <f t="shared" si="6"/>
-        <v>43137</v>
+      <c r="A14" s="161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="125"/>
+      <c r="E14" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>173</v>
       </c>
       <c r="G14" s="61">
-        <v>3</v>
-      </c>
-      <c r="H14" s="62">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="62"/>
       <c r="I14" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="106"/>
@@ -5113,30 +5383,25 @@
       <c r="BN14" s="106"/>
     </row>
     <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="B15" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="99">
-        <v>43136</v>
-      </c>
-      <c r="F15" s="100">
-        <f t="shared" si="6"/>
-        <v>43140</v>
+      <c r="A15" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>174</v>
       </c>
       <c r="G15" s="61">
-        <v>5</v>
-      </c>
-      <c r="H15" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="62"/>
       <c r="I15" s="63">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="106"/>
@@ -5197,30 +5462,25 @@
       <c r="BN15" s="106"/>
     </row>
     <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="99">
-        <v>43134</v>
-      </c>
-      <c r="F16" s="100">
-        <f t="shared" si="6"/>
-        <v>43140</v>
+      <c r="A16" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>174</v>
       </c>
       <c r="G16" s="61">
-        <v>7</v>
-      </c>
-      <c r="H16" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" s="62"/>
       <c r="I16" s="63">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="106"/>
@@ -5281,30 +5541,25 @@
       <c r="BN16" s="106"/>
     </row>
     <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>1.7</v>
-      </c>
-      <c r="B17" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="99">
-        <v>43141</v>
-      </c>
-      <c r="F17" s="100">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+      <c r="A17" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>174</v>
       </c>
       <c r="G17" s="61">
-        <v>7</v>
-      </c>
-      <c r="H17" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" s="62"/>
       <c r="I17" s="63">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="106"/>
@@ -5364,109 +5619,105 @@
       <c r="BM17" s="106"/>
       <c r="BN17" s="106"/>
     </row>
-    <row r="18" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="108"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="108"/>
-      <c r="AM18" s="108"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="108"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="108"/>
-      <c r="AR18" s="108"/>
-      <c r="AS18" s="108"/>
-      <c r="AT18" s="108"/>
-      <c r="AU18" s="108"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="108"/>
-      <c r="AX18" s="108"/>
-      <c r="AY18" s="108"/>
-      <c r="AZ18" s="108"/>
-      <c r="BA18" s="108"/>
-      <c r="BB18" s="108"/>
-      <c r="BC18" s="108"/>
-      <c r="BD18" s="108"/>
-      <c r="BE18" s="108"/>
-      <c r="BF18" s="108"/>
-      <c r="BG18" s="108"/>
-      <c r="BH18" s="108"/>
-      <c r="BI18" s="108"/>
-      <c r="BJ18" s="108"/>
-      <c r="BK18" s="108"/>
-      <c r="BL18" s="108"/>
-      <c r="BM18" s="108"/>
-      <c r="BN18" s="108"/>
+    <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="125"/>
+      <c r="E18" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="61">
+        <v>1</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63">
+        <v>1</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+      <c r="AY18" s="106"/>
+      <c r="AZ18" s="106"/>
+      <c r="BA18" s="106"/>
+      <c r="BB18" s="106"/>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="106"/>
+      <c r="BE18" s="106"/>
+      <c r="BF18" s="106"/>
+      <c r="BG18" s="106"/>
+      <c r="BH18" s="106"/>
+      <c r="BI18" s="106"/>
+      <c r="BJ18" s="106"/>
+      <c r="BK18" s="106"/>
+      <c r="BL18" s="106"/>
+      <c r="BM18" s="106"/>
+      <c r="BN18" s="106"/>
     </row>
     <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B19" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="99">
-        <v>43141</v>
-      </c>
-      <c r="F19" s="100">
-        <f t="shared" si="6"/>
-        <v>43144</v>
+      <c r="A19" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="125"/>
+      <c r="E19" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>175</v>
       </c>
       <c r="G19" s="61">
-        <v>4</v>
-      </c>
-      <c r="H19" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H19" s="62"/>
       <c r="I19" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="106"/>
@@ -5527,30 +5778,25 @@
       <c r="BN19" s="106"/>
     </row>
     <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B20" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="99">
-        <v>43145</v>
-      </c>
-      <c r="F20" s="100">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+      <c r="A20" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="125"/>
+      <c r="E20" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>175</v>
       </c>
       <c r="G20" s="61">
-        <v>3</v>
-      </c>
-      <c r="H20" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H20" s="62"/>
       <c r="I20" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="106"/>
@@ -5611,30 +5857,25 @@
       <c r="BN20" s="106"/>
     </row>
     <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B21" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="99">
-        <v>43145</v>
-      </c>
-      <c r="F21" s="100">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+      <c r="A21" s="161">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="125"/>
+      <c r="E21" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>178</v>
       </c>
       <c r="G21" s="61">
-        <v>3</v>
-      </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="62"/>
       <c r="I21" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="106"/>
@@ -5695,35 +5936,33 @@
       <c r="BN21" s="106"/>
     </row>
     <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A22" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B22" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="99">
-        <v>43148</v>
-      </c>
-      <c r="F22" s="100">
-        <f t="shared" si="6"/>
-        <v>43153</v>
+      <c r="A22" s="161" t="str">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="B22" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="125"/>
+      <c r="E22" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>180</v>
       </c>
       <c r="G22" s="61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" s="62">
         <v>0</v>
       </c>
       <c r="I22" s="63">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="106"/>
       <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="M22" s="107"/>
       <c r="N22" s="106"/>
       <c r="O22" s="106"/>
       <c r="P22" s="106"/>
@@ -5779,30 +6018,28 @@
       <c r="BN22" s="106"/>
     </row>
     <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B23" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="99">
-        <v>43154</v>
-      </c>
-      <c r="F23" s="100">
-        <f t="shared" si="6"/>
-        <v>43156</v>
+      <c r="A23" s="161" t="str">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="B23" s="165" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="125"/>
+      <c r="E23" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>183</v>
       </c>
       <c r="G23" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="106"/>
@@ -5862,108 +6099,110 @@
       <c r="BM23" s="106"/>
       <c r="BN23" s="106"/>
     </row>
-    <row r="24" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="108"/>
-      <c r="AJ24" s="108"/>
-      <c r="AK24" s="108"/>
-      <c r="AL24" s="108"/>
-      <c r="AM24" s="108"/>
-      <c r="AN24" s="108"/>
-      <c r="AO24" s="108"/>
-      <c r="AP24" s="108"/>
-      <c r="AQ24" s="108"/>
-      <c r="AR24" s="108"/>
-      <c r="AS24" s="108"/>
-      <c r="AT24" s="108"/>
-      <c r="AU24" s="108"/>
-      <c r="AV24" s="108"/>
-      <c r="AW24" s="108"/>
-      <c r="AX24" s="108"/>
-      <c r="AY24" s="108"/>
-      <c r="AZ24" s="108"/>
-      <c r="BA24" s="108"/>
-      <c r="BB24" s="108"/>
-      <c r="BC24" s="108"/>
-      <c r="BD24" s="108"/>
-      <c r="BE24" s="108"/>
-      <c r="BF24" s="108"/>
-      <c r="BG24" s="108"/>
-      <c r="BH24" s="108"/>
-      <c r="BI24" s="108"/>
-      <c r="BJ24" s="108"/>
-      <c r="BK24" s="108"/>
-      <c r="BL24" s="108"/>
-      <c r="BM24" s="108"/>
-      <c r="BN24" s="108"/>
+    <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A24" s="161" t="str">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="B24" s="165" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="125"/>
+      <c r="E24" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="61">
+        <v>2</v>
+      </c>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="63">
+        <v>2</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="106"/>
+      <c r="AN24" s="106"/>
+      <c r="AO24" s="106"/>
+      <c r="AP24" s="106"/>
+      <c r="AQ24" s="106"/>
+      <c r="AR24" s="106"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="106"/>
+      <c r="AU24" s="106"/>
+      <c r="AV24" s="106"/>
+      <c r="AW24" s="106"/>
+      <c r="AX24" s="106"/>
+      <c r="AY24" s="106"/>
+      <c r="AZ24" s="106"/>
+      <c r="BA24" s="106"/>
+      <c r="BB24" s="106"/>
+      <c r="BC24" s="106"/>
+      <c r="BD24" s="106"/>
+      <c r="BE24" s="106"/>
+      <c r="BF24" s="106"/>
+      <c r="BG24" s="106"/>
+      <c r="BH24" s="106"/>
+      <c r="BI24" s="106"/>
+      <c r="BJ24" s="106"/>
+      <c r="BK24" s="106"/>
+      <c r="BL24" s="106"/>
+      <c r="BM24" s="106"/>
+      <c r="BN24" s="106"/>
     </row>
     <row r="25" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B25" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="99">
-        <v>43141</v>
-      </c>
-      <c r="F25" s="100">
-        <f t="shared" si="6"/>
-        <v>43144</v>
+      <c r="A25" s="161" t="str">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="125"/>
+      <c r="E25" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="G25" s="61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="62">
         <v>0</v>
       </c>
       <c r="I25" s="63">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J25" s="94"/>
@@ -6025,30 +6264,27 @@
       <c r="BN25" s="106"/>
     </row>
     <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A26" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B26" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="99">
-        <v>43145</v>
-      </c>
-      <c r="F26" s="100">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+      <c r="A26" s="161">
+        <v>1.9</v>
+      </c>
+      <c r="B26" s="165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="125"/>
+      <c r="E26" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="G26" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="62">
         <v>0</v>
       </c>
       <c r="I26" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="106"/>
@@ -6108,115 +6344,107 @@
       <c r="BM26" s="106"/>
       <c r="BN26" s="106"/>
     </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="59" t="str">
+    <row r="27" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101" t="str">
+        <f t="shared" ref="F26:F44" si="6">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J27" s="95"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="108"/>
+      <c r="AP27" s="108"/>
+      <c r="AQ27" s="108"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="108"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="108"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="108"/>
+      <c r="AZ27" s="108"/>
+      <c r="BA27" s="108"/>
+      <c r="BB27" s="108"/>
+      <c r="BC27" s="108"/>
+      <c r="BD27" s="108"/>
+      <c r="BE27" s="108"/>
+      <c r="BF27" s="108"/>
+      <c r="BG27" s="108"/>
+      <c r="BH27" s="108"/>
+      <c r="BI27" s="108"/>
+      <c r="BJ27" s="108"/>
+      <c r="BK27" s="108"/>
+      <c r="BL27" s="108"/>
+      <c r="BM27" s="108"/>
+      <c r="BN27" s="108"/>
+    </row>
+    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B27" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="99">
-        <v>43145</v>
-      </c>
-      <c r="F27" s="100">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G27" s="61">
-        <v>3</v>
-      </c>
-      <c r="H27" s="62">
-        <v>0</v>
-      </c>
-      <c r="I27" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
-      <c r="AM27" s="106"/>
-      <c r="AN27" s="106"/>
-      <c r="AO27" s="106"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="106"/>
-      <c r="AR27" s="106"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
-      <c r="BB27" s="106"/>
-      <c r="BC27" s="106"/>
-      <c r="BD27" s="106"/>
-      <c r="BE27" s="106"/>
-      <c r="BF27" s="106"/>
-      <c r="BG27" s="106"/>
-      <c r="BH27" s="106"/>
-      <c r="BI27" s="106"/>
-      <c r="BJ27" s="106"/>
-      <c r="BK27" s="106"/>
-      <c r="BL27" s="106"/>
-      <c r="BM27" s="106"/>
-      <c r="BN27" s="106"/>
-    </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A28" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B28" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="99">
-        <v>43148</v>
-      </c>
-      <c r="F28" s="100">
-        <f t="shared" si="6"/>
-        <v>43153</v>
+        <v>2.1</v>
+      </c>
+      <c r="B28" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="125"/>
+      <c r="E28" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>190</v>
       </c>
       <c r="G28" s="61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" s="62">
         <v>0</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="106"/>
@@ -6276,21 +6504,21 @@
       <c r="BM28" s="106"/>
       <c r="BN28" s="106"/>
     </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="59" t="str">
+    <row r="29" spans="1:66" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B29" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="126"/>
+        <v>2.2</v>
+      </c>
+      <c r="B29" s="165" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="125"/>
       <c r="E29" s="99">
-        <v>43154</v>
+        <v>43145</v>
       </c>
       <c r="F29" s="100">
         <f t="shared" si="6"/>
-        <v>43156</v>
+        <v>43147</v>
       </c>
       <c r="G29" s="61">
         <v>3</v>
@@ -6300,7 +6528,7 @@
       </c>
       <c r="I29" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="106"/>
@@ -6360,109 +6588,114 @@
       <c r="BM29" s="106"/>
       <c r="BN29" s="106"/>
     </row>
-    <row r="30" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101" t="str">
+    <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A30" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="125"/>
+      <c r="E30" s="99">
+        <v>43145</v>
+      </c>
+      <c r="F30" s="100">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58" t="str">
+        <v>43147</v>
+      </c>
+      <c r="G30" s="61">
+        <v>3</v>
+      </c>
+      <c r="H30" s="62">
+        <v>0</v>
+      </c>
+      <c r="I30" s="63">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J30" s="95"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="108"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="108"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="108"/>
-      <c r="AM30" s="108"/>
-      <c r="AN30" s="108"/>
-      <c r="AO30" s="108"/>
-      <c r="AP30" s="108"/>
-      <c r="AQ30" s="108"/>
-      <c r="AR30" s="108"/>
-      <c r="AS30" s="108"/>
-      <c r="AT30" s="108"/>
-      <c r="AU30" s="108"/>
-      <c r="AV30" s="108"/>
-      <c r="AW30" s="108"/>
-      <c r="AX30" s="108"/>
-      <c r="AY30" s="108"/>
-      <c r="AZ30" s="108"/>
-      <c r="BA30" s="108"/>
-      <c r="BB30" s="108"/>
-      <c r="BC30" s="108"/>
-      <c r="BD30" s="108"/>
-      <c r="BE30" s="108"/>
-      <c r="BF30" s="108"/>
-      <c r="BG30" s="108"/>
-      <c r="BH30" s="108"/>
-      <c r="BI30" s="108"/>
-      <c r="BJ30" s="108"/>
-      <c r="BK30" s="108"/>
-      <c r="BL30" s="108"/>
-      <c r="BM30" s="108"/>
-      <c r="BN30" s="108"/>
+        <v>3</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="106"/>
+      <c r="AY30" s="106"/>
+      <c r="AZ30" s="106"/>
+      <c r="BA30" s="106"/>
+      <c r="BB30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="106"/>
+      <c r="BL30" s="106"/>
+      <c r="BM30" s="106"/>
+      <c r="BN30" s="106"/>
     </row>
     <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="59" t="str">
+      <c r="A31" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B31" s="125" t="s">
+        <v>2.3</v>
+      </c>
+      <c r="B31" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="126"/>
+      <c r="D31" s="125"/>
       <c r="E31" s="99">
-        <v>43129</v>
+        <v>43148</v>
       </c>
       <c r="F31" s="100">
         <f t="shared" si="6"/>
-        <v>43129</v>
+        <v>43153</v>
       </c>
       <c r="G31" s="61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H31" s="62">
         <v>0</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="106"/>
@@ -6523,23 +6756,23 @@
       <c r="BN31" s="106"/>
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A32" s="59" t="str">
+      <c r="A32" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B32" s="125" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="B32" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="99">
-        <v>43130</v>
+        <v>43154</v>
       </c>
       <c r="F32" s="100">
         <f t="shared" si="6"/>
-        <v>43130</v>
+        <v>43156</v>
       </c>
       <c r="G32" s="61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="62">
         <v>0</v>
@@ -6606,115 +6839,109 @@
       <c r="BM32" s="106"/>
       <c r="BN32" s="106"/>
     </row>
-    <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A33" s="59" t="str">
+    <row r="33" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A33" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J33" s="95"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="108"/>
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="108"/>
+      <c r="AP33" s="108"/>
+      <c r="AQ33" s="108"/>
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="108"/>
+      <c r="AU33" s="108"/>
+      <c r="AV33" s="108"/>
+      <c r="AW33" s="108"/>
+      <c r="AX33" s="108"/>
+      <c r="AY33" s="108"/>
+      <c r="AZ33" s="108"/>
+      <c r="BA33" s="108"/>
+      <c r="BB33" s="108"/>
+      <c r="BC33" s="108"/>
+      <c r="BD33" s="108"/>
+      <c r="BE33" s="108"/>
+      <c r="BF33" s="108"/>
+      <c r="BG33" s="108"/>
+      <c r="BH33" s="108"/>
+      <c r="BI33" s="108"/>
+      <c r="BJ33" s="108"/>
+      <c r="BK33" s="108"/>
+      <c r="BL33" s="108"/>
+      <c r="BM33" s="108"/>
+      <c r="BN33" s="108"/>
+    </row>
+    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A34" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B33" s="125" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="B34" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="99">
-        <v>43131</v>
-      </c>
-      <c r="F33" s="100">
-        <f t="shared" si="6"/>
-        <v>43131</v>
-      </c>
-      <c r="G33" s="61">
-        <v>1</v>
-      </c>
-      <c r="H33" s="62">
-        <v>0</v>
-      </c>
-      <c r="I33" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="106"/>
-      <c r="BG33" s="106"/>
-      <c r="BH33" s="106"/>
-      <c r="BI33" s="106"/>
-      <c r="BJ33" s="106"/>
-      <c r="BK33" s="106"/>
-      <c r="BL33" s="106"/>
-      <c r="BM33" s="106"/>
-      <c r="BN33" s="106"/>
-    </row>
-    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A34" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B34" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="126"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="99">
-        <v>43132</v>
+        <v>43141</v>
       </c>
       <c r="F34" s="100">
         <f t="shared" si="6"/>
-        <v>43132</v>
+        <v>43144</v>
       </c>
       <c r="G34" s="61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="62">
         <v>0</v>
       </c>
       <c r="I34" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="106"/>
@@ -6775,30 +7002,30 @@
       <c r="BN34" s="106"/>
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="59" t="str">
+      <c r="A35" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B35" s="125" t="s">
+        <v>3.2</v>
+      </c>
+      <c r="B35" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="126"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="99">
-        <v>43133</v>
+        <v>43145</v>
       </c>
       <c r="F35" s="100">
         <f t="shared" si="6"/>
-        <v>43133</v>
+        <v>43147</v>
       </c>
       <c r="G35" s="61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="62">
         <v>0</v>
       </c>
       <c r="I35" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="94"/>
       <c r="K35" s="106"/>
@@ -6858,20 +7085,33 @@
       <c r="BM35" s="106"/>
       <c r="BN35" s="106"/>
     </row>
-    <row r="36" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="59"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68" t="str">
+    <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A36" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B36" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="99">
+        <v>43145</v>
+      </c>
+      <c r="F36" s="100">
+        <f t="shared" si="6"/>
+        <v>43147</v>
+      </c>
+      <c r="G36" s="61">
+        <v>3</v>
+      </c>
+      <c r="H36" s="62">
+        <v>0</v>
+      </c>
+      <c r="I36" s="63">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J36" s="96"/>
+        <v>3</v>
+      </c>
+      <c r="J36" s="94"/>
       <c r="K36" s="106"/>
       <c r="L36" s="106"/>
       <c r="M36" s="106"/>
@@ -6929,20 +7169,33 @@
       <c r="BM36" s="106"/>
       <c r="BN36" s="106"/>
     </row>
-    <row r="37" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68" t="str">
+    <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A37" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B37" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="125"/>
+      <c r="E37" s="99">
+        <v>43148</v>
+      </c>
+      <c r="F37" s="100">
+        <f t="shared" si="6"/>
+        <v>43153</v>
+      </c>
+      <c r="G37" s="61">
+        <v>6</v>
+      </c>
+      <c r="H37" s="62">
+        <v>0</v>
+      </c>
+      <c r="I37" s="63">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J37" s="96"/>
+        <v>4</v>
+      </c>
+      <c r="J37" s="94"/>
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="106"/>
@@ -7000,19 +7253,33 @@
       <c r="BM37" s="106"/>
       <c r="BN37" s="106"/>
     </row>
-    <row r="38" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A38" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B38" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="125"/>
+      <c r="E38" s="99">
+        <v>43154</v>
+      </c>
+      <c r="F38" s="100">
+        <f t="shared" si="6"/>
+        <v>43156</v>
+      </c>
+      <c r="G38" s="61">
         <v>3</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="97"/>
+      <c r="H38" s="62">
+        <v>0</v>
+      </c>
+      <c r="I38" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="94"/>
       <c r="K38" s="106"/>
       <c r="L38" s="106"/>
       <c r="M38" s="106"/>
@@ -7070,98 +7337,111 @@
       <c r="BM38" s="106"/>
       <c r="BN38" s="106"/>
     </row>
-    <row r="39" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A39" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="106"/>
-      <c r="AD39" s="106"/>
-      <c r="AE39" s="106"/>
-      <c r="AF39" s="106"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="106"/>
-      <c r="AL39" s="106"/>
-      <c r="AM39" s="106"/>
-      <c r="AN39" s="106"/>
-      <c r="AO39" s="106"/>
-      <c r="AP39" s="106"/>
-      <c r="AQ39" s="106"/>
-      <c r="AR39" s="106"/>
-      <c r="AS39" s="106"/>
-      <c r="AT39" s="106"/>
-      <c r="AU39" s="106"/>
-      <c r="AV39" s="106"/>
-      <c r="AW39" s="106"/>
-      <c r="AX39" s="106"/>
-      <c r="AY39" s="106"/>
-      <c r="AZ39" s="106"/>
-      <c r="BA39" s="106"/>
-      <c r="BB39" s="106"/>
-      <c r="BC39" s="106"/>
-      <c r="BD39" s="106"/>
-      <c r="BE39" s="106"/>
-      <c r="BF39" s="106"/>
-      <c r="BG39" s="106"/>
-      <c r="BH39" s="106"/>
-      <c r="BI39" s="106"/>
-      <c r="BJ39" s="106"/>
-      <c r="BK39" s="106"/>
-      <c r="BL39" s="106"/>
-      <c r="BM39" s="106"/>
-      <c r="BN39" s="106"/>
-    </row>
-    <row r="40" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A40" s="129" t="str">
+    <row r="39" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A39" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J39" s="95"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="108"/>
+      <c r="AJ39" s="108"/>
+      <c r="AK39" s="108"/>
+      <c r="AL39" s="108"/>
+      <c r="AM39" s="108"/>
+      <c r="AN39" s="108"/>
+      <c r="AO39" s="108"/>
+      <c r="AP39" s="108"/>
+      <c r="AQ39" s="108"/>
+      <c r="AR39" s="108"/>
+      <c r="AS39" s="108"/>
+      <c r="AT39" s="108"/>
+      <c r="AU39" s="108"/>
+      <c r="AV39" s="108"/>
+      <c r="AW39" s="108"/>
+      <c r="AX39" s="108"/>
+      <c r="AY39" s="108"/>
+      <c r="AZ39" s="108"/>
+      <c r="BA39" s="108"/>
+      <c r="BB39" s="108"/>
+      <c r="BC39" s="108"/>
+      <c r="BD39" s="108"/>
+      <c r="BE39" s="108"/>
+      <c r="BF39" s="108"/>
+      <c r="BG39" s="108"/>
+      <c r="BH39" s="108"/>
+      <c r="BI39" s="108"/>
+      <c r="BJ39" s="108"/>
+      <c r="BK39" s="108"/>
+      <c r="BL39" s="108"/>
+      <c r="BM39" s="108"/>
+      <c r="BN39" s="108"/>
+    </row>
+    <row r="40" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A40" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B40" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="125"/>
+      <c r="E40" s="99">
+        <v>43129</v>
+      </c>
+      <c r="F40" s="100">
+        <f t="shared" si="6"/>
+        <v>43129</v>
+      </c>
+      <c r="G40" s="61">
         <v>1</v>
       </c>
-      <c r="B40" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="100" t="str">
-        <f t="shared" ref="F40:F43" si="7">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="79" t="str">
-        <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="98"/>
+      <c r="H40" s="62">
+        <v>0</v>
+      </c>
+      <c r="I40" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="94"/>
       <c r="K40" s="106"/>
       <c r="L40" s="106"/>
       <c r="M40" s="106"/>
@@ -7219,28 +7499,33 @@
       <c r="BM40" s="106"/>
       <c r="BN40" s="106"/>
     </row>
-    <row r="41" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A41" s="59" t="str">
+    <row r="41" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A41" s="161" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="79" t="str">
-        <f t="shared" ref="I41:I43" si="8">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="98"/>
+        <v>4.2</v>
+      </c>
+      <c r="B41" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="125"/>
+      <c r="E41" s="99">
+        <v>43130</v>
+      </c>
+      <c r="F41" s="100">
+        <f t="shared" si="6"/>
+        <v>43130</v>
+      </c>
+      <c r="G41" s="61">
+        <v>1</v>
+      </c>
+      <c r="H41" s="62">
+        <v>0</v>
+      </c>
+      <c r="I41" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="94"/>
       <c r="K41" s="106"/>
       <c r="L41" s="106"/>
       <c r="M41" s="106"/>
@@ -7298,28 +7583,33 @@
       <c r="BM41" s="106"/>
       <c r="BN41" s="106"/>
     </row>
-    <row r="42" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A42" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B42" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J42" s="98"/>
+    <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A42" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B42" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="125"/>
+      <c r="E42" s="99">
+        <v>43131</v>
+      </c>
+      <c r="F42" s="100">
+        <f t="shared" si="6"/>
+        <v>43131</v>
+      </c>
+      <c r="G42" s="61">
+        <v>1</v>
+      </c>
+      <c r="H42" s="62">
+        <v>0</v>
+      </c>
+      <c r="I42" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="94"/>
       <c r="K42" s="106"/>
       <c r="L42" s="106"/>
       <c r="M42" s="106"/>
@@ -7377,28 +7667,33 @@
       <c r="BM42" s="106"/>
       <c r="BN42" s="106"/>
     </row>
-    <row r="43" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J43" s="98"/>
+    <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A43" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B43" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="125"/>
+      <c r="E43" s="99">
+        <v>43132</v>
+      </c>
+      <c r="F43" s="100">
+        <f t="shared" si="6"/>
+        <v>43132</v>
+      </c>
+      <c r="G43" s="61">
+        <v>1</v>
+      </c>
+      <c r="H43" s="62">
+        <v>0</v>
+      </c>
+      <c r="I43" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="94"/>
       <c r="K43" s="106"/>
       <c r="L43" s="106"/>
       <c r="M43" s="106"/>
@@ -7456,76 +7751,758 @@
       <c r="BM43" s="106"/>
       <c r="BN43" s="106"/>
     </row>
-    <row r="44" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="162" t="str">
+    <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A44" s="161" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B44" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="125"/>
+      <c r="E44" s="99">
+        <v>43133</v>
+      </c>
+      <c r="F44" s="100">
+        <f t="shared" si="6"/>
+        <v>43133</v>
+      </c>
+      <c r="G44" s="61">
+        <v>1</v>
+      </c>
+      <c r="H44" s="62">
+        <v>0</v>
+      </c>
+      <c r="I44" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="94"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="106"/>
+      <c r="AI44" s="106"/>
+      <c r="AJ44" s="106"/>
+      <c r="AK44" s="106"/>
+      <c r="AL44" s="106"/>
+      <c r="AM44" s="106"/>
+      <c r="AN44" s="106"/>
+      <c r="AO44" s="106"/>
+      <c r="AP44" s="106"/>
+      <c r="AQ44" s="106"/>
+      <c r="AR44" s="106"/>
+      <c r="AS44" s="106"/>
+      <c r="AT44" s="106"/>
+      <c r="AU44" s="106"/>
+      <c r="AV44" s="106"/>
+      <c r="AW44" s="106"/>
+      <c r="AX44" s="106"/>
+      <c r="AY44" s="106"/>
+      <c r="AZ44" s="106"/>
+      <c r="BA44" s="106"/>
+      <c r="BB44" s="106"/>
+      <c r="BC44" s="106"/>
+      <c r="BD44" s="106"/>
+      <c r="BE44" s="106"/>
+      <c r="BF44" s="106"/>
+      <c r="BG44" s="106"/>
+      <c r="BH44" s="106"/>
+      <c r="BI44" s="106"/>
+      <c r="BJ44" s="106"/>
+      <c r="BK44" s="106"/>
+      <c r="BL44" s="106"/>
+      <c r="BM44" s="106"/>
+      <c r="BN44" s="106"/>
+    </row>
+    <row r="45" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A45" s="161"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J45" s="96"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="106"/>
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="106"/>
+      <c r="AF45" s="106"/>
+      <c r="AG45" s="106"/>
+      <c r="AH45" s="106"/>
+      <c r="AI45" s="106"/>
+      <c r="AJ45" s="106"/>
+      <c r="AK45" s="106"/>
+      <c r="AL45" s="106"/>
+      <c r="AM45" s="106"/>
+      <c r="AN45" s="106"/>
+      <c r="AO45" s="106"/>
+      <c r="AP45" s="106"/>
+      <c r="AQ45" s="106"/>
+      <c r="AR45" s="106"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="106"/>
+      <c r="AU45" s="106"/>
+      <c r="AV45" s="106"/>
+      <c r="AW45" s="106"/>
+      <c r="AX45" s="106"/>
+      <c r="AY45" s="106"/>
+      <c r="AZ45" s="106"/>
+      <c r="BA45" s="106"/>
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="106"/>
+      <c r="BD45" s="106"/>
+      <c r="BE45" s="106"/>
+      <c r="BF45" s="106"/>
+      <c r="BG45" s="106"/>
+      <c r="BH45" s="106"/>
+      <c r="BI45" s="106"/>
+      <c r="BJ45" s="106"/>
+      <c r="BK45" s="106"/>
+      <c r="BL45" s="106"/>
+      <c r="BM45" s="106"/>
+      <c r="BN45" s="106"/>
+    </row>
+    <row r="46" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A46" s="161"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J46" s="96"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+      <c r="AF46" s="106"/>
+      <c r="AG46" s="106"/>
+      <c r="AH46" s="106"/>
+      <c r="AI46" s="106"/>
+      <c r="AJ46" s="106"/>
+      <c r="AK46" s="106"/>
+      <c r="AL46" s="106"/>
+      <c r="AM46" s="106"/>
+      <c r="AN46" s="106"/>
+      <c r="AO46" s="106"/>
+      <c r="AP46" s="106"/>
+      <c r="AQ46" s="106"/>
+      <c r="AR46" s="106"/>
+      <c r="AS46" s="106"/>
+      <c r="AT46" s="106"/>
+      <c r="AU46" s="106"/>
+      <c r="AV46" s="106"/>
+      <c r="AW46" s="106"/>
+      <c r="AX46" s="106"/>
+      <c r="AY46" s="106"/>
+      <c r="AZ46" s="106"/>
+      <c r="BA46" s="106"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
+      <c r="BE46" s="106"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="106"/>
+      <c r="BH46" s="106"/>
+      <c r="BI46" s="106"/>
+      <c r="BJ46" s="106"/>
+      <c r="BK46" s="106"/>
+      <c r="BL46" s="106"/>
+      <c r="BM46" s="106"/>
+      <c r="BN46" s="106"/>
+    </row>
+    <row r="47" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A47" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+      <c r="AF47" s="106"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
+      <c r="AI47" s="106"/>
+      <c r="AJ47" s="106"/>
+      <c r="AK47" s="106"/>
+      <c r="AL47" s="106"/>
+      <c r="AM47" s="106"/>
+      <c r="AN47" s="106"/>
+      <c r="AO47" s="106"/>
+      <c r="AP47" s="106"/>
+      <c r="AQ47" s="106"/>
+      <c r="AR47" s="106"/>
+      <c r="AS47" s="106"/>
+      <c r="AT47" s="106"/>
+      <c r="AU47" s="106"/>
+      <c r="AV47" s="106"/>
+      <c r="AW47" s="106"/>
+      <c r="AX47" s="106"/>
+      <c r="AY47" s="106"/>
+      <c r="AZ47" s="106"/>
+      <c r="BA47" s="106"/>
+      <c r="BB47" s="106"/>
+      <c r="BC47" s="106"/>
+      <c r="BD47" s="106"/>
+      <c r="BE47" s="106"/>
+      <c r="BF47" s="106"/>
+      <c r="BG47" s="106"/>
+      <c r="BH47" s="106"/>
+      <c r="BI47" s="106"/>
+      <c r="BJ47" s="106"/>
+      <c r="BK47" s="106"/>
+      <c r="BL47" s="106"/>
+      <c r="BM47" s="106"/>
+      <c r="BN47" s="106"/>
+    </row>
+    <row r="48" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A48" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+      <c r="AB48" s="106"/>
+      <c r="AC48" s="106"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="106"/>
+      <c r="AF48" s="106"/>
+      <c r="AG48" s="106"/>
+      <c r="AH48" s="106"/>
+      <c r="AI48" s="106"/>
+      <c r="AJ48" s="106"/>
+      <c r="AK48" s="106"/>
+      <c r="AL48" s="106"/>
+      <c r="AM48" s="106"/>
+      <c r="AN48" s="106"/>
+      <c r="AO48" s="106"/>
+      <c r="AP48" s="106"/>
+      <c r="AQ48" s="106"/>
+      <c r="AR48" s="106"/>
+      <c r="AS48" s="106"/>
+      <c r="AT48" s="106"/>
+      <c r="AU48" s="106"/>
+      <c r="AV48" s="106"/>
+      <c r="AW48" s="106"/>
+      <c r="AX48" s="106"/>
+      <c r="AY48" s="106"/>
+      <c r="AZ48" s="106"/>
+      <c r="BA48" s="106"/>
+      <c r="BB48" s="106"/>
+      <c r="BC48" s="106"/>
+      <c r="BD48" s="106"/>
+      <c r="BE48" s="106"/>
+      <c r="BF48" s="106"/>
+      <c r="BG48" s="106"/>
+      <c r="BH48" s="106"/>
+      <c r="BI48" s="106"/>
+      <c r="BJ48" s="106"/>
+      <c r="BK48" s="106"/>
+      <c r="BL48" s="106"/>
+      <c r="BM48" s="106"/>
+      <c r="BN48" s="106"/>
+    </row>
+    <row r="49" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A49" s="127" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100" t="str">
+        <f t="shared" ref="F49:F52" si="7">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G49" s="61"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="79" t="str">
+        <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J49" s="98"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="106"/>
+      <c r="U49" s="106"/>
+      <c r="V49" s="106"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="106"/>
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="106"/>
+      <c r="AE49" s="106"/>
+      <c r="AF49" s="106"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="106"/>
+      <c r="AI49" s="106"/>
+      <c r="AJ49" s="106"/>
+      <c r="AK49" s="106"/>
+      <c r="AL49" s="106"/>
+      <c r="AM49" s="106"/>
+      <c r="AN49" s="106"/>
+      <c r="AO49" s="106"/>
+      <c r="AP49" s="106"/>
+      <c r="AQ49" s="106"/>
+      <c r="AR49" s="106"/>
+      <c r="AS49" s="106"/>
+      <c r="AT49" s="106"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="106"/>
+      <c r="AW49" s="106"/>
+      <c r="AX49" s="106"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="106"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="106"/>
+      <c r="BD49" s="106"/>
+      <c r="BE49" s="106"/>
+      <c r="BF49" s="106"/>
+      <c r="BG49" s="106"/>
+      <c r="BH49" s="106"/>
+      <c r="BI49" s="106"/>
+      <c r="BJ49" s="106"/>
+      <c r="BK49" s="106"/>
+      <c r="BL49" s="106"/>
+      <c r="BM49" s="106"/>
+      <c r="BN49" s="106"/>
+    </row>
+    <row r="50" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A50" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="80"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="79" t="str">
+        <f t="shared" ref="I50:I52" si="8">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J50" s="98"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="106"/>
+      <c r="T50" s="106"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="106"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="106"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="106"/>
+      <c r="AB50" s="106"/>
+      <c r="AC50" s="106"/>
+      <c r="AD50" s="106"/>
+      <c r="AE50" s="106"/>
+      <c r="AF50" s="106"/>
+      <c r="AG50" s="106"/>
+      <c r="AH50" s="106"/>
+      <c r="AI50" s="106"/>
+      <c r="AJ50" s="106"/>
+      <c r="AK50" s="106"/>
+      <c r="AL50" s="106"/>
+      <c r="AM50" s="106"/>
+      <c r="AN50" s="106"/>
+      <c r="AO50" s="106"/>
+      <c r="AP50" s="106"/>
+      <c r="AQ50" s="106"/>
+      <c r="AR50" s="106"/>
+      <c r="AS50" s="106"/>
+      <c r="AT50" s="106"/>
+      <c r="AU50" s="106"/>
+      <c r="AV50" s="106"/>
+      <c r="AW50" s="106"/>
+      <c r="AX50" s="106"/>
+      <c r="AY50" s="106"/>
+      <c r="AZ50" s="106"/>
+      <c r="BA50" s="106"/>
+      <c r="BB50" s="106"/>
+      <c r="BC50" s="106"/>
+      <c r="BD50" s="106"/>
+      <c r="BE50" s="106"/>
+      <c r="BF50" s="106"/>
+      <c r="BG50" s="106"/>
+      <c r="BH50" s="106"/>
+      <c r="BI50" s="106"/>
+      <c r="BJ50" s="106"/>
+      <c r="BK50" s="106"/>
+      <c r="BL50" s="106"/>
+      <c r="BM50" s="106"/>
+      <c r="BN50" s="106"/>
+    </row>
+    <row r="51" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A51" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="80"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G51" s="61"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="79" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J51" s="98"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="106"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="106"/>
+      <c r="AE51" s="106"/>
+      <c r="AF51" s="106"/>
+      <c r="AG51" s="106"/>
+      <c r="AH51" s="106"/>
+      <c r="AI51" s="106"/>
+      <c r="AJ51" s="106"/>
+      <c r="AK51" s="106"/>
+      <c r="AL51" s="106"/>
+      <c r="AM51" s="106"/>
+      <c r="AN51" s="106"/>
+      <c r="AO51" s="106"/>
+      <c r="AP51" s="106"/>
+      <c r="AQ51" s="106"/>
+      <c r="AR51" s="106"/>
+      <c r="AS51" s="106"/>
+      <c r="AT51" s="106"/>
+      <c r="AU51" s="106"/>
+      <c r="AV51" s="106"/>
+      <c r="AW51" s="106"/>
+      <c r="AX51" s="106"/>
+      <c r="AY51" s="106"/>
+      <c r="AZ51" s="106"/>
+      <c r="BA51" s="106"/>
+      <c r="BB51" s="106"/>
+      <c r="BC51" s="106"/>
+      <c r="BD51" s="106"/>
+      <c r="BE51" s="106"/>
+      <c r="BF51" s="106"/>
+      <c r="BG51" s="106"/>
+      <c r="BH51" s="106"/>
+      <c r="BI51" s="106"/>
+      <c r="BJ51" s="106"/>
+      <c r="BK51" s="106"/>
+      <c r="BL51" s="106"/>
+      <c r="BM51" s="106"/>
+      <c r="BN51" s="106"/>
+    </row>
+    <row r="52" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A52" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B52" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="80"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="79" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J52" s="98"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="106"/>
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="106"/>
+      <c r="AE52" s="106"/>
+      <c r="AF52" s="106"/>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="106"/>
+      <c r="AI52" s="106"/>
+      <c r="AJ52" s="106"/>
+      <c r="AK52" s="106"/>
+      <c r="AL52" s="106"/>
+      <c r="AM52" s="106"/>
+      <c r="AN52" s="106"/>
+      <c r="AO52" s="106"/>
+      <c r="AP52" s="106"/>
+      <c r="AQ52" s="106"/>
+      <c r="AR52" s="106"/>
+      <c r="AS52" s="106"/>
+      <c r="AT52" s="106"/>
+      <c r="AU52" s="106"/>
+      <c r="AV52" s="106"/>
+      <c r="AW52" s="106"/>
+      <c r="AX52" s="106"/>
+      <c r="AY52" s="106"/>
+      <c r="AZ52" s="106"/>
+      <c r="BA52" s="106"/>
+      <c r="BB52" s="106"/>
+      <c r="BC52" s="106"/>
+      <c r="BD52" s="106"/>
+      <c r="BE52" s="106"/>
+      <c r="BF52" s="106"/>
+      <c r="BG52" s="106"/>
+      <c r="BH52" s="106"/>
+      <c r="BI52" s="106"/>
+      <c r="BJ52" s="106"/>
+      <c r="BK52" s="106"/>
+      <c r="BL52" s="106"/>
+      <c r="BM52" s="106"/>
+      <c r="BN52" s="106"/>
+    </row>
+    <row r="53" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="160" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
-      <c r="AU44" s="30"/>
-      <c r="AV44" s="30"/>
-      <c r="AW44" s="30"/>
-      <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="30"/>
-      <c r="BA44" s="30"/>
-      <c r="BB44" s="30"/>
-      <c r="BC44" s="30"/>
-      <c r="BD44" s="30"/>
-      <c r="BE44" s="30"/>
-      <c r="BF44" s="30"/>
-      <c r="BG44" s="30"/>
-      <c r="BH44" s="30"/>
-      <c r="BI44" s="30"/>
-      <c r="BJ44" s="30"/>
-      <c r="BK44" s="30"/>
-      <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="30"/>
+      <c r="AS53" s="30"/>
+      <c r="AT53" s="30"/>
+      <c r="AU53" s="30"/>
+      <c r="AV53" s="30"/>
+      <c r="AW53" s="30"/>
+      <c r="AX53" s="30"/>
+      <c r="AY53" s="30"/>
+      <c r="AZ53" s="30"/>
+      <c r="BA53" s="30"/>
+      <c r="BB53" s="30"/>
+      <c r="BC53" s="30"/>
+      <c r="BD53" s="30"/>
+      <c r="BE53" s="30"/>
+      <c r="BF53" s="30"/>
+      <c r="BG53" s="30"/>
+      <c r="BH53" s="30"/>
+      <c r="BI53" s="30"/>
+      <c r="BJ53" s="30"/>
+      <c r="BK53" s="30"/>
+      <c r="BL53" s="30"/>
+      <c r="BM53" s="30"/>
+      <c r="BN53" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -7551,7 +8528,7 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H43">
+  <conditionalFormatting sqref="H8:H52">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7570,7 +8547,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN43">
+  <conditionalFormatting sqref="K8:BN52">
     <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -7578,7 +8555,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN43">
+  <conditionalFormatting sqref="K6:BN52">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -7593,8 +8570,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A36:B37 B31 B32:B34 B25:B28 B19:B22 G13:H13 G12 G16 G14:H14 A39:B39 B38 E18 E24 E30 E36:H39 G15 G11 G10 G18:H18 G24:H24 G30:H34 H22 G40 G41:G42 G43 H20 H21 H25:H28" unlockedFormula="1"/>
-    <ignoredError sqref="A30 A24 A18" formula="1"/>
+    <ignoredError sqref="H9 A45:B46 B40 B41:B43 B34:B37 B30:B31 A48:B48 B47 E27 E33 E39 E45:H48 G12 G27:H27 G33:H33 G39:H43 H31 G49 G50:G51 G52 H29 H30 H34:H37" unlockedFormula="1"/>
+    <ignoredError sqref="A39 A33 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -7642,7 +8619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H43</xm:sqref>
+          <xm:sqref>H8:H52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7871,7 +8848,7 @@
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="135" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="9"/>
@@ -7883,199 +8860,199 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="130" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="136" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="136" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="135" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="175"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="141"/>
-      <c r="B15" s="139" t="s">
+    <row r="15" spans="1:3" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="139"/>
+      <c r="B15" s="137" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="141"/>
-      <c r="B16" s="140" t="s">
+    <row r="16" spans="1:3" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16" s="139"/>
+      <c r="B16" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="133" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="142"/>
-      <c r="B17" s="140" t="s">
+      <c r="A17" s="140"/>
+      <c r="B17" s="138" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="142"/>
-      <c r="B18" s="140" t="s">
+      <c r="A18" s="140"/>
+      <c r="B18" s="138" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="145"/>
-      <c r="B19" s="140" t="s">
+      <c r="A19" s="143"/>
+      <c r="B19" s="138" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="141"/>
-      <c r="B20" s="139" t="s">
+    <row r="20" spans="1:3" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="139"/>
+      <c r="B20" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="132" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="142"/>
-      <c r="B21" s="140" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="138" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="142" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="143"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="172"/>
+      <c r="B24" s="175"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="143"/>
-      <c r="B25" s="140" t="s">
+      <c r="A25" s="141"/>
+      <c r="B25" s="138" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="143"/>
-      <c r="B26" s="140"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="138"/>
     </row>
     <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="143"/>
-      <c r="B27" s="161" t="s">
+      <c r="A27" s="141"/>
+      <c r="B27" s="159" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="143"/>
-      <c r="B28" s="140" t="s">
+      <c r="A28" s="141"/>
+      <c r="B28" s="138" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="143"/>
-      <c r="B29" s="140" t="s">
+      <c r="A29" s="141"/>
+      <c r="B29" s="138" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="143"/>
-      <c r="B30" s="140"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="138"/>
     </row>
     <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="143"/>
-      <c r="B31" s="161" t="s">
+      <c r="A31" s="141"/>
+      <c r="B31" s="159" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="143"/>
-      <c r="B32" s="140" t="s">
+      <c r="A32" s="141"/>
+      <c r="B32" s="138" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="143"/>
-      <c r="B33" s="140" t="s">
+      <c r="A33" s="141"/>
+      <c r="B33" s="138" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="143"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="143"/>
-      <c r="B35" s="140" t="s">
-        <v>138</v>
+      <c r="A35" s="141"/>
+      <c r="B35" s="138" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="143"/>
-      <c r="B36" s="146" t="s">
+      <c r="A36" s="141"/>
+      <c r="B36" s="144" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="143"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="172"/>
+      <c r="B38" s="175"/>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="B39" s="140" t="s">
+      <c r="B39" s="138" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="140" t="s">
+      <c r="B41" s="138" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="138" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="138" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8083,7 +9060,7 @@
       <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="B47" s="140" t="s">
+      <c r="B47" s="138" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8091,100 +9068,100 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="175"/>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="B50" s="140" t="s">
-        <v>139</v>
+      <c r="B50" s="138" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A52" s="147" t="s">
+      <c r="A52" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="138" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="138" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="138" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A55" s="136"/>
-      <c r="B55" s="140" t="s">
+      <c r="A55" s="134"/>
+      <c r="B55" s="138" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A56" s="136"/>
-      <c r="B56" s="140" t="s">
+      <c r="A56" s="134"/>
+      <c r="B56" s="138" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A57" s="147" t="s">
+      <c r="A57" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="138" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A58" s="136"/>
-      <c r="B58" s="140" t="s">
+      <c r="A58" s="134"/>
+      <c r="B58" s="138" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A59" s="136"/>
-      <c r="B59" s="140" t="s">
+      <c r="A59" s="134"/>
+      <c r="B59" s="138" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A60" s="147" t="s">
+      <c r="A60" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="138" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A61" s="136"/>
-      <c r="B61" s="140" t="s">
+      <c r="A61" s="134"/>
+      <c r="B61" s="138" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A62" s="147" t="s">
+      <c r="A62" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="138" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A63" s="148"/>
-      <c r="B63" s="140" t="s">
+      <c r="A63" s="146"/>
+      <c r="B63" s="138" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8192,13 +9169,13 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="172"/>
+      <c r="B65" s="175"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="138" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8206,154 +9183,154 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="175"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="156" t="s">
+      <c r="B69" s="154" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A70" s="149"/>
-      <c r="B70" s="154" t="s">
+      <c r="A70" s="147"/>
+      <c r="B70" s="152" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="149"/>
-      <c r="B71" s="150"/>
+      <c r="A71" s="147"/>
+      <c r="B71" s="148"/>
     </row>
     <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="156" t="s">
+      <c r="B72" s="154" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A73" s="149"/>
-      <c r="B73" s="154" t="s">
-        <v>141</v>
+      <c r="A73" s="147"/>
+      <c r="B73" s="152" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="149"/>
-      <c r="B74" s="150"/>
+      <c r="A74" s="147"/>
+      <c r="B74" s="148"/>
     </row>
     <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="158" t="s">
+      <c r="B75" s="156" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A76" s="149"/>
-      <c r="B76" s="138" t="s">
-        <v>140</v>
+      <c r="A76" s="147"/>
+      <c r="B76" s="136" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="148"/>
-      <c r="B77" s="148"/>
+      <c r="A77" s="146"/>
+      <c r="B77" s="146"/>
     </row>
     <row r="78" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="155" t="s">
+      <c r="A78" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="158" t="s">
+      <c r="B78" s="156" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A79" s="149"/>
-      <c r="B79" s="138" t="s">
+      <c r="A79" s="147"/>
+      <c r="B79" s="136" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="148"/>
-      <c r="B80" s="148"/>
+      <c r="A80" s="146"/>
+      <c r="B80" s="146"/>
     </row>
     <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="155" t="s">
+      <c r="A81" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="158" t="s">
+      <c r="B81" s="156" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A82" s="149"/>
-      <c r="B82" s="153" t="s">
+      <c r="A82" s="147"/>
+      <c r="B82" s="151" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="149"/>
-      <c r="B83" s="153" t="s">
+      <c r="A83" s="147"/>
+      <c r="B83" s="151" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A84" s="149"/>
-      <c r="B84" s="153" t="s">
+      <c r="A84" s="147"/>
+      <c r="B84" s="151" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="148"/>
-      <c r="B85" s="152"/>
+      <c r="A85" s="146"/>
+      <c r="B85" s="150"/>
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="158" t="s">
+      <c r="B86" s="156" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A87" s="149"/>
-      <c r="B87" s="138" t="s">
+      <c r="A87" s="147"/>
+      <c r="B87" s="136" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A88" s="149"/>
-      <c r="B88" s="151" t="s">
+      <c r="A88" s="147"/>
+      <c r="B88" s="149" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A89" s="149"/>
-      <c r="B89" s="157" t="s">
+      <c r="A89" s="147"/>
+      <c r="B89" s="155" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="148"/>
-      <c r="B90" s="148"/>
+      <c r="A90" s="146"/>
+      <c r="B90" s="146"/>
     </row>
     <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="155" t="s">
+      <c r="A91" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="160" t="s">
+      <c r="B91" s="158" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A92" s="136"/>
-      <c r="B92" s="153" t="s">
+      <c r="A92" s="134"/>
+      <c r="B92" s="151" t="s">
         <v>25</v>
       </c>
     </row>
